--- a/academycity/data/avic/datasets/excel/conference/output/HighTech/2014_ExportICT_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/HighTech/2014_ExportICT_o.xlsx
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C135" t="n">
